--- a/java/Linux/rabbitMQ.xlsx
+++ b/java/Linux/rabbitMQ.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="手动安装" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>消息中间件</t>
   </si>
@@ -27,10 +27,277 @@
     <t>https://www.rabbitmq.com/</t>
   </si>
   <si>
-    <t>文档</t>
-  </si>
-  <si>
-    <t>https://www.kuangstudy.com/zl/rabbitmq</t>
+    <t>centos8下RabbitMQ安装步骤</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/juglan/article/details/123459888</t>
+  </si>
+  <si>
+    <t>erlang</t>
+  </si>
+  <si>
+    <t>https://www.erlang-solutions.com/downloads/</t>
+  </si>
+  <si>
+    <r>
+      <t>安装依赖环境，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">下面的先卸载
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有一个没安装到，没影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Error: Unable to find a match: build-essential</t>
+    </r>
+  </si>
+  <si>
+    <t>yum install build-essential openssl openssl-devel unixODBC-devel make gcc gcc-c++ kernel-devel m4 ncurses-devel tk tc xz</t>
+  </si>
+  <si>
+    <r>
+      <t>创建目录
+方式1：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手动下载安装两个rpm包,上传这目录下，推荐</t>
+    </r>
+  </si>
+  <si>
+    <t>mkdir -p /home/rabbitmq</t>
+  </si>
+  <si>
+    <t>cd /home/rabbitmq</t>
+  </si>
+  <si>
+    <t>解压</t>
+  </si>
+  <si>
+    <t>rpm -Uvh esl-erlang_24.1.7-1_centos_8_amd64.rpm --nodeps --force
+--nodeps --force 不再分析包之间的依赖关系而直接安装</t>
+  </si>
+  <si>
+    <r>
+      <t>方式2：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命令下载包到当前目录，要配置麻烦，不推荐</t>
+    </r>
+  </si>
+  <si>
+    <t>wget https://packages.erlang-solutions.com/包名.rpm
+rpm -Uvh 包名.rpm</t>
+  </si>
+  <si>
+    <t>安装</t>
+  </si>
+  <si>
+    <t>yum install -y erlang</t>
+  </si>
+  <si>
+    <t>查看版本号，ctr+c退出</t>
+  </si>
+  <si>
+    <t>erl -v</t>
+  </si>
+  <si>
+    <t>检查erlang是否已安装</t>
+  </si>
+  <si>
+    <t>rpm -qa | grep erlang   这里的名字，卸载有用</t>
+  </si>
+  <si>
+    <r>
+      <t>卸载，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要先卸载rabbitmq-server</t>
+    </r>
+  </si>
+  <si>
+    <t>yum -y remove erlang   名字不对卸载不了
+yum -y remove 名字</t>
+  </si>
+  <si>
+    <t>安装socat</t>
+  </si>
+  <si>
+    <t>yum install -y socat</t>
+  </si>
+  <si>
+    <t>rpm -Uvh rabbitmq-server-3.10.6-1.el8.noarch.rpm --nodeps --force</t>
+  </si>
+  <si>
+    <t>yum install -y rabbitmq-server</t>
+  </si>
+  <si>
+    <t>卸载</t>
+  </si>
+  <si>
+    <t>yum -y remove rabbitmq-server</t>
+  </si>
+  <si>
+    <t>检验是否安装成功</t>
+  </si>
+  <si>
+    <t>rpm -qi rabbitmq-server</t>
+  </si>
+  <si>
+    <t>启动服务</t>
+  </si>
+  <si>
+    <t>systemctl start rabbitmq-server</t>
+  </si>
+  <si>
+    <t>查看状态</t>
+  </si>
+  <si>
+    <t>systemctl status rabbitmq-server</t>
+  </si>
+  <si>
+    <t>设置开机就启动服务</t>
+  </si>
+  <si>
+    <t>systemctl enable rabbitmq-server</t>
+  </si>
+  <si>
+    <t>停止服务</t>
+  </si>
+  <si>
+    <t>systemctl stop rabbitmq-server</t>
+  </si>
+  <si>
+    <t>重启服务</t>
+  </si>
+  <si>
+    <t>systemctl restart rabbitmq-server</t>
+  </si>
+  <si>
+    <r>
+      <t>管理界面,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安装后要重启服务</t>
+    </r>
+  </si>
+  <si>
+    <t>rabbitmq-plugins enable rabbitmq_management</t>
+  </si>
+  <si>
+    <t>开启防火墙端口
+并且阿里云配置安全组开放端口</t>
+  </si>
+  <si>
+    <t>firewall-cmd --zone=public --add-port=15672/tcp --permanent
+systemctl restart firewalld.service</t>
+  </si>
+  <si>
+    <r>
+      <t>远程连接登录不了，在linux电脑可以登录，需要授权
+授权账号密码，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动服务才能设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+默认账号密码：guest guest
+用户级别：
+administrator  超级管理员
+monitoring 监控者
+policymaker 策略制定者
+management 普通管理员</t>
+    </r>
+  </si>
+  <si>
+    <t>rabbitmqctl add_user admin admin     新增用户，账号admin,密码admin
+rabbitmqctl set_user_tags admin administrator    设置用户操作权限
+rabbitmqctl set_permissions -p / admin ".*" ".*" ".*"   设置资源权限，超级管理员不需要设置也有权限
+rabbitmqctl change_password 用户名 新密码    修改密码
+rabbitmqctl delete_user 用户名        删除用户
+rabbitmqctl list_users      查看用户清单</t>
+  </si>
+  <si>
+    <t>浏览器访问（主机用的是公网IP）</t>
+  </si>
+  <si>
+    <t>http://39.108.174.145:15672</t>
   </si>
 </sst>
 </file>
@@ -43,7 +310,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,36 +328,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,16 +790,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,16 +808,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,98 +826,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,6 +929,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -715,6 +1004,163 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3537585</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ali20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3779520" y="800100"/>
+          <a:ext cx="3240405" cy="1829435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="ali21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="53340" y="792480"/>
+          <a:ext cx="3703320" cy="1903730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3589020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6086475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="ali22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7071360" y="731520"/>
+          <a:ext cx="2497455" cy="1851025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6202680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="ali23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9685020" y="731520"/>
+          <a:ext cx="2927350" cy="1760220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1004,16 +1450,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="50.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="110.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1031,11 +1477,227 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="16" ht="43.2" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" ht="28.8" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" ht="115.2" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1043,12 +1705,15 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.rabbitmq.com/"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.kuangstudy.com/zl/rabbitmq"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.rabbitmq.com/" tooltip="https://www.rabbitmq.com/"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.erlang-solutions.com/downloads/" tooltip="https://www.erlang-solutions.com/downloads/"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://blog.csdn.net/juglan/article/details/123459888" tooltip="https://blog.csdn.net/juglan/article/details/123459888"/>
+    <hyperlink ref="B40" r:id="rId5" display="http://39.108.174.145:15672" tooltip="http://39.108.174.145:15672"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/java/Linux/rabbitMQ.xlsx
+++ b/java/Linux/rabbitMQ.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="手动安装" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Docker安装RabbitMQ" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>消息中间件</t>
   </si>
@@ -40,6 +40,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>安装依赖环境，</t>
     </r>
     <r>
@@ -90,6 +97,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>创建目录
 方式1：</t>
     </r>
@@ -119,6 +133,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>方式2：</t>
     </r>
     <r>
@@ -156,6 +177,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>卸载，</t>
     </r>
     <r>
@@ -229,6 +257,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>管理界面,</t>
     </r>
     <r>
@@ -255,6 +290,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>远程连接登录不了，在linux电脑可以登录，需要授权
 授权账号密码，</t>
     </r>
@@ -299,6 +341,44 @@
   <si>
     <t>http://39.108.174.145:15672</t>
   </si>
+  <si>
+    <t>yum包更新到最新</t>
+  </si>
+  <si>
+    <t>yum update</t>
+  </si>
+  <si>
+    <t>安装docker依赖环境</t>
+  </si>
+  <si>
+    <t>yum install -y device-mapper-persistent-data lvm2</t>
+  </si>
+  <si>
+    <t>安装并启动docker</t>
+  </si>
+  <si>
+    <t>略</t>
+  </si>
+  <si>
+    <t>安装并启动rabbitmq
+--hostname 指定容器主机名称
+--name 指定容器名称
+-p 将rabbitmq端口号映射到本地
+设置rabbitmq用户名与密码</t>
+  </si>
+  <si>
+    <t>docker run -di --hostname hostRabbitmq04 --name myRabbitmq04 -e RABBITMQ_DEFAULT_USER=admin -e RABBITMQ_DEFAULT_PASS=admin -p 15672:15672 -p 5672:5672 -p 61613:61613 -p 1883:1883 rabbitmq:3-management
+删掉了-p 25672:25673   因为25672被占用,能安装就是运行失败</t>
+  </si>
+  <si>
+    <t>docker images</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>停止手动的服务</t>
+  </si>
 </sst>
 </file>
 
@@ -321,6 +401,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -331,14 +419,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,15 +882,15 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,29 +1000,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1152,6 +1235,49 @@
         <a:xfrm>
           <a:off x="9685020" y="731520"/>
           <a:ext cx="2927350" cy="1760220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1564640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ali24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="2468880"/>
+          <a:ext cx="4360545" cy="2864485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1452,8 +1578,8 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1463,24 +1589,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1488,58 +1614,58 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="2"/>
+      <c r="B11" s="4"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="2"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="2"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="2"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="16" ht="43.2" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1547,15 +1673,15 @@
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1584,10 +1710,10 @@
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1600,7 +1726,7 @@
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1632,7 +1758,7 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1669,7 +1795,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
@@ -1677,26 +1803,26 @@
       </c>
     </row>
     <row r="38" ht="28.8" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" ht="115.2" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1720,17 +1846,84 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" ht="72" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId2" display="http://39.108.174.145:15672" tooltip="http://39.108.174.145:15672"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/java/Linux/rabbitMQ.xlsx
+++ b/java/Linux/rabbitMQ.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="手动安装" sheetId="1" r:id="rId1"/>
     <sheet name="Docker安装RabbitMQ" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="内存磁盘" sheetId="3" r:id="rId3"/>
+    <sheet name="集群" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>消息中间件</t>
   </si>
@@ -378,6 +379,109 @@
   </si>
   <si>
     <t>停止手动的服务</t>
+  </si>
+  <si>
+    <t>内存换页</t>
+  </si>
+  <si>
+    <t>修改配置文件</t>
+  </si>
+  <si>
+    <t>cd /etc/rabbitmq/rabbitmq.conf</t>
+  </si>
+  <si>
+    <t>设置相对值，建议0.4~0.7之间</t>
+  </si>
+  <si>
+    <t>vm_memory_high_watermark.relative = 0.5</t>
+  </si>
+  <si>
+    <t>设置绝对值</t>
+  </si>
+  <si>
+    <t>vm_memory_high_watermark.absolute = 2GB</t>
+  </si>
+  <si>
+    <t>建议0.4~0.7之间</t>
+  </si>
+  <si>
+    <t>vm_memory_high_watermark.paging_ratio = 0.5</t>
+  </si>
+  <si>
+    <t>磁盘预警</t>
+  </si>
+  <si>
+    <t>少于100MB就预警</t>
+  </si>
+  <si>
+    <t>rabbitmqctl set_disk_free_limit 100MB</t>
+  </si>
+  <si>
+    <t>查看rabbitmq进程</t>
+  </si>
+  <si>
+    <t>ps aux|grep rabbitmq</t>
+  </si>
+  <si>
+    <t>启动第一个节点</t>
+  </si>
+  <si>
+    <t>sudo RABBITMQ_NODE_PORT=5672 RABBITMQ_NODENAME=rabbit-1 rabbitmq-server start &amp;</t>
+  </si>
+  <si>
+    <t>启动第二个节点</t>
+  </si>
+  <si>
+    <t>sudo RABBITMQ_NODE_PORT=5672 RABBITMQ_SERVER_START_ARGS="-rabbitmq_management listener [{port,15673}]" RABBITMQ_NODENAME=rabbit-2 rabbitmq-server start &amp;</t>
+  </si>
+  <si>
+    <t>验证启动</t>
+  </si>
+  <si>
+    <t>rabbit-1操作为主节点</t>
+  </si>
+  <si>
+    <t>停止应用</t>
+  </si>
+  <si>
+    <t>sudo rabbitmqctl -n rabbit-1 stop_app</t>
+  </si>
+  <si>
+    <t>清楚节点的历史数据</t>
+  </si>
+  <si>
+    <t>sudo rabbitmqctl -n rabbit-1 reset</t>
+  </si>
+  <si>
+    <t>启动应用</t>
+  </si>
+  <si>
+    <t>sudo rabbitmqctl -n rabbit-1 start_app</t>
+  </si>
+  <si>
+    <t>rabbit-2操作为从节点</t>
+  </si>
+  <si>
+    <t>sudo rabbitmqctl -n rabbit-2 stop_app</t>
+  </si>
+  <si>
+    <t>sudo rabbitmqctl -n rabbit-2 reset</t>
+  </si>
+  <si>
+    <t>将rabbit-2节点加入到rabbit-1
+Server-node是服务器主机名</t>
+  </si>
+  <si>
+    <t>sudo rabbitmqctl -n rabbit-2 join_cluster rabbit-1@'Server-node'</t>
+  </si>
+  <si>
+    <t>sudo rabbitmqctl -n rabbit-2 start_app</t>
+  </si>
+  <si>
+    <t>验证集群状态</t>
+  </si>
+  <si>
+    <t>sudo rabbitmqctl cluster_status -n rabbit-1</t>
   </si>
 </sst>
 </file>
@@ -550,12 +654,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -858,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,16 +980,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,10 +1001,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,28 +1025,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -945,19 +1055,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,43 +1076,55 @@
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1589,24 +1708,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1614,42 +1733,42 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="4"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="4"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="16" ht="43.2" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1657,7 +1776,7 @@
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1678,7 +1797,7 @@
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1710,7 +1829,7 @@
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1795,7 +1914,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
@@ -1803,7 +1922,7 @@
       </c>
     </row>
     <row r="38" ht="28.8" spans="1:2">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1811,7 +1930,7 @@
       </c>
     </row>
     <row r="39" ht="115.2" spans="1:2">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1822,7 +1941,7 @@
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1848,8 +1967,8 @@
   <sheetPr/>
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1912,7 +2031,7 @@
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1930,16 +2049,214 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/Linux/rabbitMQ.xlsx
+++ b/java/Linux/rabbitMQ.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="手动安装" sheetId="1" r:id="rId1"/>
-    <sheet name="Docker安装RabbitMQ" sheetId="2" r:id="rId2"/>
+    <sheet name="Linux手动安装" sheetId="1" r:id="rId1"/>
+    <sheet name="Linux自动安装RabbitMQ" sheetId="2" r:id="rId2"/>
     <sheet name="内存磁盘" sheetId="3" r:id="rId3"/>
     <sheet name="集群" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -1110,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,9 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1697,7 +1694,7 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -1708,24 +1705,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1733,42 +1730,42 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="16" ht="43.2" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1776,7 +1773,7 @@
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1797,7 +1794,7 @@
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1829,7 +1826,7 @@
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1914,7 +1911,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
@@ -1922,7 +1919,7 @@
       </c>
     </row>
     <row r="38" ht="28.8" spans="1:2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1930,7 +1927,7 @@
       </c>
     </row>
     <row r="39" ht="115.2" spans="1:2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1941,7 +1938,7 @@
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1968,7 +1965,7 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2031,7 +2028,7 @@
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2051,7 +2048,7 @@
   <sheetPr/>
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2129,7 +2126,7 @@
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2224,7 +2221,7 @@
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B13" t="s">
@@ -2240,8 +2237,8 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
